--- a/biology/Médecine/Myomètre/Myomètre.xlsx
+++ b/biology/Médecine/Myomètre/Myomètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myom%C3%A8tre</t>
+          <t>Myomètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le myomètre est la couche musculeuse interne de la paroi de l'utérus. Il est composé de trois couches (de l'intérieur à l'extérieur) : 
 le myomètre subendométrial, ou stratum subvasculare, qui est constitué essentiellement de fibres musculaires circulaires qui se dirigent vers les trompes ;
 la couche moyenne, ou stratum vasculare, qui représente le corps principal du myomètre et qui est constituée de trois courts faisceaux disposés tridimensionnellement ;
 la couche externe, ou stratum supravasculare, qui est constituée de fibres musculaires parallèles à l'axe de l'utérus.
-Durant la grossesse, le travail musculaire du myomètre est nul, mais lors de l'accouchement, la transmission du travail musculaire est maximale et le myomètre contribue à expulser le fœtus[1].
+Durant la grossesse, le travail musculaire du myomètre est nul, mais lors de l'accouchement, la transmission du travail musculaire est maximale et le myomètre contribue à expulser le fœtus.
 Pendant l'accouchement, les deux couches externes se contractent pour expulser le bébé.
 Les contractions sont inhibées par de fortes concentrations de progestérone.
 </t>
